--- a/Riesgo de mercado/7.- Rate Risk.xlsx
+++ b/Riesgo de mercado/7.- Rate Risk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegolozoya/Documents/ITESO/Semestre 6/Administración de riesgos/Riesgo de mercado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DF3FF8-1717-DA47-87D1-6E8ABA7D4FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4300456-42AC-044B-AB63-577FDF138624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="No.1" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
   <si>
     <t xml:space="preserve">Tenemos un swap cuyo DV01 es de 7,372 pesos </t>
   </si>
@@ -104,6 +104,120 @@
   </si>
   <si>
     <t>bonos en corto para cubrirme</t>
+  </si>
+  <si>
+    <t>Banco -&gt; Market Maker</t>
+  </si>
+  <si>
+    <t>Cobertura: Neutralizar riesgos</t>
+  </si>
+  <si>
+    <t>1.- Nuestro riesgo es que suba la tasa</t>
+  </si>
+  <si>
+    <t>2.- Vendemos bonos en corto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.- </t>
+  </si>
+  <si>
+    <t>Valor del Swap</t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>Settle</t>
+  </si>
+  <si>
+    <t>Tasa Swap</t>
+  </si>
+  <si>
+    <t>Nocional</t>
+  </si>
+  <si>
+    <t>105M</t>
+  </si>
+  <si>
+    <t>Valor del Swap + 1 basis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuanto cambia el valor del Swap en pesos mexicanos </t>
+  </si>
+  <si>
+    <t>por un cambio de un basis en la tasa</t>
+  </si>
+  <si>
+    <t>Valor del Bono</t>
+  </si>
+  <si>
+    <t>Valor del Bono + 1 basis</t>
+  </si>
+  <si>
+    <t>DV01 Bono</t>
+  </si>
+  <si>
+    <t>DV01 Swap</t>
+  </si>
+  <si>
+    <t>Cuanto cambia el valor del Bono en pesos mexicanos</t>
+  </si>
+  <si>
+    <t>Tenemos que vender en corto</t>
+  </si>
+  <si>
+    <t>bonos de la se</t>
+  </si>
+  <si>
+    <t>4.- Escenario hipotético: Banxico sube las tasas 10 basis ese mismo día</t>
+  </si>
+  <si>
+    <t>Valor del Swap + 10 basis</t>
+  </si>
+  <si>
+    <t>Valor del bono + 10 basis</t>
+  </si>
+  <si>
+    <t>P&amp;L (loss)</t>
+  </si>
+  <si>
+    <t>P&amp;L (profit)</t>
+  </si>
+  <si>
+    <t>P&amp;L cobertura</t>
+  </si>
+  <si>
+    <t>Hay perdida y nos es 0, porque hicimos la estrategia de cobertura a 1 basis, además porque la maturity de los bonos no coinide</t>
+  </si>
+  <si>
+    <t>1.- Riesgo: baje la tasa</t>
+  </si>
+  <si>
+    <t>2.- Comprar bonos</t>
+  </si>
+  <si>
+    <t>3.-</t>
+  </si>
+  <si>
+    <t>210M</t>
+  </si>
+  <si>
+    <t>bonos de la serie MX0MGO000193</t>
+  </si>
+  <si>
+    <t>Valor del Swap - 15 basis</t>
+  </si>
+  <si>
+    <t>4.- Escenario hipotético: Banxico baja las tasas 15 basis ese mismo día</t>
+  </si>
+  <si>
+    <t>Valor del bono - 15 basis</t>
+  </si>
+  <si>
+    <t>Tenemos que comprar</t>
+  </si>
+  <si>
+    <t>Hay perdida y no es 0, porque hicimos la estrategia de cobertura a 1 basis, además porque la maturity de los bonos no coinide</t>
   </si>
 </sst>
 </file>
@@ -114,7 +228,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +250,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,11 +287,19 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -766,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CB1C4C-048B-B84F-A7DC-1166A1B6FAE8}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -903,12 +1038,206 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="G3:K31"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24:K31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="23.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.83203125" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="4">
+        <v>12206</v>
+      </c>
+    </row>
+    <row r="11" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="4">
+        <v>45700</v>
+      </c>
+    </row>
+    <row r="12" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.10539999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="7">
+        <v>11065000</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="7">
+        <v>87.542699999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="7">
+        <v>11130000</v>
+      </c>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="7">
+        <v>87.491299999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="6">
+        <f>ABS(H16-H15)</f>
+        <v>65000</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="8">
+        <f>ABS(K15-K16)</f>
+        <v>5.1400000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="9">
+        <f>H18/K18</f>
+        <v>1264591.4396886914</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="7">
+        <v>11716000</v>
+      </c>
+      <c r="J26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="7">
+        <v>87.03</v>
+      </c>
+    </row>
+    <row r="27" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="11">
+        <f>H15-H26</f>
+        <v>-651000</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="11">
+        <f>(K15-K26)*H22</f>
+        <v>648356.03112838615</v>
+      </c>
+    </row>
+    <row r="30" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="10">
+        <f>H28+K28</f>
+        <v>-2643.968871613848</v>
+      </c>
+    </row>
+    <row r="31" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -917,14 +1246,196 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="H2:L27"/>
   <sheetViews>
-    <sheetView zoomScale="173" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="4">
+        <v>46254</v>
+      </c>
+    </row>
+    <row r="7" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="4">
+        <v>45700</v>
+      </c>
+    </row>
+    <row r="8" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="5">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="7">
+        <v>8430800</v>
+      </c>
+      <c r="K11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="7">
+        <v>97.034300000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="7">
+        <v>8469100</v>
+      </c>
+      <c r="K12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="7">
+        <v>97.020399999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="6">
+        <f>ABS(I12-I11)</f>
+        <v>38300</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="8">
+        <f>ABS(L11-L12)</f>
+        <v>1.3900000000006685E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="9">
+        <f>I14/L14</f>
+        <v>2755395.6834519124</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="7">
+        <v>7855600</v>
+      </c>
+      <c r="K22" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="7">
+        <v>97.243200000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="11">
+        <f>I22-I11</f>
+        <v>-575200</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="11">
+        <f>(L22-L11)*I18</f>
+        <v>575602.15827310411</v>
+      </c>
+    </row>
+    <row r="26" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="10">
+        <f>I24+L24</f>
+        <v>402.1582731041126</v>
+      </c>
+    </row>
+    <row r="27" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
